--- a/flask_cbit_smart_attendance/xlwt att_sheets.xlsx
+++ b/flask_cbit_smart_attendance/xlwt att_sheets.xlsx
@@ -424,16 +424,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="17.77734375" customWidth="1" min="1" max="1"/>
     <col width="17.88671875" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,6 +448,26 @@
           <t>Roll No from face</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Is Student Present?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1601-19-733-136</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160119733136</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -459,6 +480,9 @@
           <t>160119733136</t>
         </is>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -470,6 +494,9 @@
         <is>
           <t>160119733136</t>
         </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/flask_cbit_smart_attendance/xlwt att_sheets.xlsx
+++ b/flask_cbit_smart_attendance/xlwt att_sheets.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -469,36 +469,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1601-19-733-136</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160119733136</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1601-19-733-136</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160119733136</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
